--- a/raw_data/20200818_saline/20200818_Sensor1_Test_87.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_87.xlsx
@@ -1,1264 +1,1680 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCEDF6-932A-4926-9FA0-19817608CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>77589.700351</v>
+        <v>77589.700351000007</v>
       </c>
       <c r="B2" s="1">
         <v>21.552695</v>
       </c>
       <c r="C2" s="1">
-        <v>902.193000</v>
+        <v>902.19299999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.863000</v>
+        <v>-198.863</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>77600.453633</v>
+        <v>77600.453632999997</v>
       </c>
       <c r="G2" s="1">
-        <v>21.555682</v>
+        <v>21.555682000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>920.355000</v>
+        <v>920.35500000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.587000</v>
+        <v>-169.58699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>77610.927140</v>
+        <v>77610.92714</v>
       </c>
       <c r="L2" s="1">
         <v>21.558591</v>
       </c>
       <c r="M2" s="1">
-        <v>944.980000</v>
+        <v>944.98</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.185000</v>
+        <v>-121.185</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>77621.771668</v>
+        <v>77621.771668000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.561603</v>
+        <v>21.561603000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>952.309000</v>
+        <v>952.30899999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.975000</v>
+        <v>-104.97499999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>77632.047324</v>
+        <v>77632.047323999999</v>
       </c>
       <c r="V2" s="1">
-        <v>21.564458</v>
+        <v>21.564457999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>959.451000</v>
+        <v>959.45100000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.731400</v>
+        <v>-89.731399999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>77642.453353</v>
+        <v>77642.453353000004</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.567348</v>
+        <v>21.567347999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>967.070000</v>
+        <v>967.07</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.911600</v>
+        <v>-77.911600000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>77652.994829</v>
+        <v>77652.994829000003</v>
       </c>
       <c r="AF2" s="1">
         <v>21.570276</v>
       </c>
       <c r="AG2" s="1">
-        <v>972.115000</v>
+        <v>972.11500000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.485200</v>
+        <v>-75.485200000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>77663.438095</v>
+        <v>77663.438095000005</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.573177</v>
+        <v>21.573177000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.401000</v>
+        <v>979.40099999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.889000</v>
+        <v>-79.888999999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>77674.701744</v>
+        <v>77674.701744000005</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.576306</v>
+        <v>21.576305999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.590000</v>
+        <v>987.59</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.161400</v>
+        <v>-91.1614</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>77685.446080</v>
+        <v>77685.446079999994</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.579291</v>
+        <v>21.579291000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.509000</v>
+        <v>997.50900000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.489000</v>
+        <v>-108.489</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>77696.298051</v>
+        <v>77696.298051000005</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.582305</v>
+        <v>21.582305000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.932000</v>
+        <v>-123.932</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>77706.906980</v>
+        <v>77706.90698</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.585252</v>
+        <v>21.585252000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.791000</v>
+        <v>-194.791</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>77717.579398</v>
+        <v>77717.579398000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.588216</v>
+        <v>21.588215999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.234000</v>
+        <v>-309.23399999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>77728.234488</v>
+        <v>77728.234488000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.591176</v>
+        <v>21.591176000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1219.880000</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-488.579000</v>
+        <v>-488.57900000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>77739.690586</v>
+        <v>77739.690585999997</v>
       </c>
       <c r="BT2" s="1">
         <v>21.594358</v>
       </c>
       <c r="BU2" s="1">
-        <v>1340.800000</v>
+        <v>1340.8</v>
       </c>
       <c r="BV2" s="1">
-        <v>-684.069000</v>
+        <v>-684.06899999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>77750.078299</v>
+        <v>77750.078299000001</v>
       </c>
       <c r="BY2" s="1">
         <v>21.597244</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1475.760000</v>
+        <v>1475.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-891.759000</v>
+        <v>-891.75900000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>77761.061213</v>
+        <v>77761.061212999994</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.600295</v>
+        <v>21.600294999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1824.810000</v>
+        <v>1824.81</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1381.910000</v>
+        <v>-1381.91</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>77590.064911</v>
+        <v>77590.064910999994</v>
       </c>
       <c r="B3" s="1">
-        <v>21.552796</v>
+        <v>21.552796000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>902.272000</v>
+        <v>902.27200000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.701000</v>
+        <v>-198.70099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>77601.179265</v>
+        <v>77601.179264999999</v>
       </c>
       <c r="G3" s="1">
-        <v>21.555883</v>
+        <v>21.555883000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.975000</v>
+        <v>919.97500000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.048000</v>
+        <v>-169.048</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>77611.642370</v>
+        <v>77611.642370000001</v>
       </c>
       <c r="L3" s="1">
-        <v>21.558790</v>
+        <v>21.558789999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>944.980000</v>
+        <v>944.98</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.277000</v>
+        <v>-121.277</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>77622.111937</v>
+        <v>77622.111936999994</v>
       </c>
       <c r="Q3" s="1">
         <v>21.561698</v>
       </c>
       <c r="R3" s="1">
-        <v>952.316000</v>
+        <v>952.31600000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.959000</v>
+        <v>-104.959</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>77632.392006</v>
+        <v>77632.392005999995</v>
       </c>
       <c r="V3" s="1">
         <v>21.564553</v>
       </c>
       <c r="W3" s="1">
-        <v>959.360000</v>
+        <v>959.36</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.855000</v>
+        <v>-89.855000000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>77642.810473</v>
+        <v>77642.810473000005</v>
       </c>
       <c r="AA3" s="1">
-        <v>21.567447</v>
+        <v>21.567447000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>967.069000</v>
+        <v>967.06899999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.973500</v>
+        <v>-77.973500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>77653.686282</v>
+        <v>77653.686281999995</v>
       </c>
       <c r="AF3" s="1">
-        <v>21.570468</v>
+        <v>21.570468000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>972.059000</v>
+        <v>972.05899999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.481300</v>
+        <v>-75.481300000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>77664.133485</v>
+        <v>77664.133484999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.573370</v>
+        <v>21.573370000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.434000</v>
+        <v>979.43399999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.870200</v>
+        <v>-79.870199999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>77675.122848</v>
+        <v>77675.122847999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.576423</v>
+        <v>21.576422999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.590000</v>
+        <v>987.59</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.138900</v>
+        <v>-91.138900000000007</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>77685.828992</v>
+        <v>77685.828991999995</v>
       </c>
       <c r="AU3" s="1">
         <v>21.579397</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.502000</v>
+        <v>997.50199999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.484000</v>
+        <v>-108.48399999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>77696.662610</v>
+        <v>77696.662609999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.582406</v>
+        <v>21.582405999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.919000</v>
+        <v>-123.919</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>77707.304773</v>
+        <v>77707.304772999996</v>
       </c>
       <c r="BE3" s="1">
         <v>21.585362</v>
       </c>
       <c r="BF3" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.795000</v>
+        <v>-194.79499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>77718.007482</v>
+        <v>77718.007482000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.588335</v>
+        <v>21.588335000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.234000</v>
+        <v>-309.23399999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>77728.662999</v>
+        <v>77728.662998999993</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.591295</v>
+        <v>21.591294999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-488.545000</v>
+        <v>-488.54500000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>77739.834890</v>
+        <v>77739.834889999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.594399</v>
+        <v>21.594398999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1340.760000</v>
+        <v>1340.76</v>
       </c>
       <c r="BV3" s="1">
-        <v>-684.175000</v>
+        <v>-684.17499999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>77750.567818</v>
+        <v>77750.567817999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>21.597380</v>
+        <v>21.597380000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1475.770000</v>
+        <v>1475.77</v>
       </c>
       <c r="CA3" s="1">
-        <v>-891.632000</v>
+        <v>-891.63199999999995</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>77761.656381</v>
+        <v>77761.656380999993</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.600460</v>
+        <v>21.600460000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.680000</v>
+        <v>1825.68</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1383.570000</v>
+        <v>-1383.57</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>77590.745917</v>
+        <v>77590.745916999993</v>
       </c>
       <c r="B4" s="1">
         <v>21.552985</v>
       </c>
       <c r="C4" s="1">
-        <v>902.113000</v>
+        <v>902.11300000000006</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.725000</v>
+        <v>-198.72499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>77601.523023</v>
+        <v>77601.523023000002</v>
       </c>
       <c r="G4" s="1">
-        <v>21.555979</v>
+        <v>21.555979000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>920.079000</v>
+        <v>920.07899999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.218000</v>
+        <v>-169.21799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>77611.991091</v>
+        <v>77611.991091000004</v>
       </c>
       <c r="L4" s="1">
-        <v>21.558886</v>
+        <v>21.558886000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.999000</v>
+        <v>944.99900000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.249000</v>
+        <v>-121.249</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>77622.459647</v>
+        <v>77622.459646999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.561794</v>
+        <v>21.561793999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>952.300000</v>
+        <v>952.3</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.024000</v>
+        <v>-105.024</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>77633.060117</v>
+        <v>77633.060117000001</v>
       </c>
       <c r="V4" s="1">
-        <v>21.564739</v>
+        <v>21.564738999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>959.332000</v>
+        <v>959.33199999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.885400</v>
+        <v>-89.885400000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>77643.472136</v>
+        <v>77643.472135999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.567631</v>
+        <v>21.567630999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>967.091000</v>
+        <v>967.09100000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.829000</v>
+        <v>-77.828999999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>77654.052794</v>
+        <v>77654.052794000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>21.570570</v>
+        <v>21.57057</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.059000</v>
+        <v>972.05899999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.343500</v>
+        <v>-75.343500000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>77664.523842</v>
+        <v>77664.523841999995</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.573479</v>
+        <v>21.573478999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.412000</v>
+        <v>979.41200000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.889500</v>
+        <v>-79.889499999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>77675.483438</v>
+        <v>77675.483437999996</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.576523</v>
+        <v>21.576523000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.590000</v>
+        <v>987.59</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.138100</v>
+        <v>-91.138099999999994</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>77686.196031</v>
+        <v>77686.196030999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.579499</v>
+        <v>21.579498999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.482000</v>
+        <v>997.48199999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.479000</v>
+        <v>-108.479</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>77697.018737</v>
+        <v>77697.018737000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.582505</v>
+        <v>21.582505000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>77707.726867</v>
+        <v>77707.726867000005</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.585480</v>
+        <v>21.58548</v>
       </c>
       <c r="BF4" s="1">
-        <v>1044.690000</v>
+        <v>1044.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.797000</v>
+        <v>-194.797</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>77718.336293</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.588427</v>
+        <v>21.588426999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.274000</v>
+        <v>-309.274</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>77729.082614</v>
+        <v>77729.082613999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.591412</v>
+        <v>21.591411999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1219.890000</v>
+        <v>1219.8900000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-488.589000</v>
+        <v>-488.589</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>77740.248069</v>
+        <v>77740.248068999994</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.594513</v>
+        <v>21.594512999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1340.790000</v>
+        <v>1340.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-684.280000</v>
+        <v>-684.28</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>77751.014714</v>
+        <v>77751.014714000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.597504</v>
+        <v>21.597504000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1475.690000</v>
+        <v>1475.69</v>
       </c>
       <c r="CA4" s="1">
-        <v>-891.753000</v>
+        <v>-891.75300000000004</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>77762.195530</v>
+        <v>77762.195529999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.600610</v>
+        <v>21.60061</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.190000</v>
+        <v>1825.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1381.620000</v>
+        <v>-1381.62</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>77591.087165</v>
+        <v>77591.087165000004</v>
       </c>
       <c r="B5" s="1">
-        <v>21.553080</v>
+        <v>21.553080000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>902.163000</v>
+        <v>902.16300000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.851000</v>
+        <v>-198.851</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>77601.868208</v>
@@ -1267,118 +1683,118 @@
         <v>21.556075</v>
       </c>
       <c r="H5" s="1">
-        <v>920.289000</v>
+        <v>920.28899999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.837000</v>
+        <v>-168.83699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>77612.336273</v>
+        <v>77612.336272999994</v>
       </c>
       <c r="L5" s="1">
         <v>21.558982</v>
       </c>
       <c r="M5" s="1">
-        <v>944.984000</v>
+        <v>944.98400000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.300000</v>
+        <v>-121.3</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>77623.118307</v>
+        <v>77623.118306999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.561977</v>
+        <v>21.561976999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>952.238000</v>
+        <v>952.23800000000006</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.055000</v>
+        <v>-105.05500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>77633.423687</v>
+        <v>77633.423687000002</v>
       </c>
       <c r="V5" s="1">
-        <v>21.564840</v>
+        <v>21.56484</v>
       </c>
       <c r="W5" s="1">
-        <v>959.419000</v>
+        <v>959.41899999999998</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.884500</v>
+        <v>-89.884500000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>77643.855047</v>
+        <v>77643.855047000005</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.567738</v>
+        <v>21.567737999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>967.068000</v>
+        <v>967.06799999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.921600</v>
+        <v>-77.921599999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>77654.405957</v>
+        <v>77654.405956999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.570668</v>
+        <v>21.570668000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.912000</v>
+        <v>971.91200000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.485100</v>
+        <v>-75.485100000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>77664.868060</v>
+        <v>77664.868059999993</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.573574</v>
+        <v>21.573574000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.429000</v>
+        <v>979.42899999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.875900</v>
+        <v>-79.875900000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>77675.844526</v>
+        <v>77675.844526000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.576623</v>
+        <v>21.576623000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.581000</v>
+        <v>987.58100000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.134000</v>
+        <v>-91.134</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>77686.623087</v>
@@ -1387,315 +1803,315 @@
         <v>21.579618</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.510000</v>
+        <v>997.51</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>77697.439368</v>
+        <v>77697.439368000007</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.582622</v>
+        <v>21.582622000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.850000</v>
+        <v>1005.85</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.902000</v>
+        <v>-123.902</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>77708.028434</v>
+        <v>77708.028434000007</v>
       </c>
       <c r="BE5" s="1">
         <v>21.585563</v>
       </c>
       <c r="BF5" s="1">
-        <v>1044.690000</v>
+        <v>1044.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.790000</v>
+        <v>-194.79</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>77718.716228</v>
+        <v>77718.716228000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.588532</v>
+        <v>21.588532000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1111.600000</v>
+        <v>1111.5999999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.255000</v>
+        <v>-309.255</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>77729.478422</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.591522</v>
+        <v>21.591522000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-488.549000</v>
+        <v>-488.54899999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>77740.675607</v>
+        <v>77740.675606999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.594632</v>
+        <v>21.594632000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1340.850000</v>
+        <v>1340.85</v>
       </c>
       <c r="BV5" s="1">
-        <v>-684.270000</v>
+        <v>-684.27</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>77751.470074</v>
+        <v>77751.470073999997</v>
       </c>
       <c r="BY5" s="1">
         <v>21.597631</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1475.720000</v>
+        <v>1475.72</v>
       </c>
       <c r="CA5" s="1">
-        <v>-891.737000</v>
+        <v>-891.73699999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>77762.734682</v>
+        <v>77762.734681999995</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.600760</v>
+        <v>21.600760000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1824.900000</v>
+        <v>1824.9</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1383.170000</v>
+        <v>-1383.17</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>77591.440850</v>
+        <v>77591.440849999999</v>
       </c>
       <c r="B6" s="1">
-        <v>21.553178</v>
+        <v>21.553177999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>902.233000</v>
+        <v>902.23299999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.778000</v>
+        <v>-198.77799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>77602.527886</v>
+        <v>77602.527885999996</v>
       </c>
       <c r="G6" s="1">
         <v>21.556258</v>
       </c>
       <c r="H6" s="1">
-        <v>920.636000</v>
+        <v>920.63599999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.445000</v>
+        <v>-169.44499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>77613.002400</v>
+        <v>77613.002399999998</v>
       </c>
       <c r="L6" s="1">
-        <v>21.559167</v>
+        <v>21.559166999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>945.044000</v>
+        <v>945.04399999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.233000</v>
+        <v>-121.233</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>77623.504691</v>
+        <v>77623.504690999995</v>
       </c>
       <c r="Q6" s="1">
         <v>21.562085</v>
       </c>
       <c r="R6" s="1">
-        <v>952.276000</v>
+        <v>952.27599999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.036000</v>
+        <v>-105.036</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>77633.767910</v>
+        <v>77633.767909999995</v>
       </c>
       <c r="V6" s="1">
-        <v>21.564936</v>
+        <v>21.564935999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>959.399000</v>
+        <v>959.399</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.829200</v>
+        <v>-89.8292</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>77644.203238</v>
+        <v>77644.203238000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.567834</v>
+        <v>21.567834000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>967.113000</v>
+        <v>967.11300000000006</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.974900</v>
+        <v>-77.974900000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>77654.749710</v>
+        <v>77654.749710000004</v>
       </c>
       <c r="AF6" s="1">
         <v>21.570764</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.107000</v>
+        <v>972.10699999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.581300</v>
+        <v>-75.581299999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>77665.233115</v>
+        <v>77665.233114999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.573676</v>
+        <v>21.573675999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.411000</v>
+        <v>979.41099999999994</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.877100</v>
+        <v>-79.877099999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>77676.285469</v>
+        <v>77676.285468999995</v>
       </c>
       <c r="AP6" s="1">
         <v>21.576746</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.604000</v>
+        <v>987.60400000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.136600</v>
+        <v>-91.136600000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>77686.924159</v>
+        <v>77686.924159000002</v>
       </c>
       <c r="AU6" s="1">
         <v>21.579701</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.496000</v>
+        <v>997.49599999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.495000</v>
+        <v>-108.495</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>77697.737440</v>
+        <v>77697.737439999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.582705</v>
+        <v>21.582705000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.820000</v>
+        <v>1005.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.926000</v>
+        <v>-123.926</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>77708.391013</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.585664</v>
+        <v>21.585664000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.783000</v>
+        <v>-194.78299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>77719.090214</v>
+        <v>77719.090213999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.588636</v>
+        <v>21.588636000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.269000</v>
+        <v>-309.26900000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>77729.898533</v>
@@ -1704,951 +2120,951 @@
         <v>21.591638</v>
       </c>
       <c r="BP6" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-488.615000</v>
+        <v>-488.61500000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>77741.112616</v>
+        <v>77741.112615999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.594754</v>
+        <v>21.594753999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1340.780000</v>
+        <v>1340.78</v>
       </c>
       <c r="BV6" s="1">
-        <v>-684.410000</v>
+        <v>-684.41</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>77751.918432</v>
+        <v>77751.918432000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.597755</v>
+        <v>21.597754999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1475.790000</v>
+        <v>1475.79</v>
       </c>
       <c r="CA6" s="1">
-        <v>-891.738000</v>
+        <v>-891.73800000000006</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>77763.272842</v>
+        <v>77763.272842000006</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.600909</v>
+        <v>21.600909000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1826.110000</v>
+        <v>1826.11</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1382.260000</v>
+        <v>-1382.26</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>77592.098787</v>
+        <v>77592.098786999995</v>
       </c>
       <c r="B7" s="1">
-        <v>21.553361</v>
+        <v>21.553360999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>902.164000</v>
+        <v>902.16399999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.939000</v>
+        <v>-198.93899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>77602.902863</v>
+        <v>77602.902862999996</v>
       </c>
       <c r="G7" s="1">
         <v>21.556362</v>
       </c>
       <c r="H7" s="1">
-        <v>920.531000</v>
+        <v>920.53099999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.031000</v>
+        <v>-169.03100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>77613.372911</v>
+        <v>77613.372910999999</v>
       </c>
       <c r="L7" s="1">
-        <v>21.559270</v>
+        <v>21.559270000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>945.040000</v>
+        <v>945.04</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.142000</v>
+        <v>-121.142</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>77623.851890</v>
+        <v>77623.851890000005</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.562181</v>
+        <v>21.562180999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>952.268000</v>
+        <v>952.26800000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.990000</v>
+        <v>-104.99</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>77634.109165</v>
+        <v>77634.109165000002</v>
       </c>
       <c r="V7" s="1">
-        <v>21.565030</v>
+        <v>21.56503</v>
       </c>
       <c r="W7" s="1">
-        <v>959.330000</v>
+        <v>959.33</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.883000</v>
+        <v>-89.882999999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>77644.553446</v>
+        <v>77644.553446000005</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.567932</v>
+        <v>21.567931999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.095000</v>
+        <v>967.09500000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.932000</v>
+        <v>-77.932000000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>77655.178217</v>
+        <v>77655.178216999993</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.570883</v>
+        <v>21.570882999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.066000</v>
+        <v>972.06600000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.447500</v>
+        <v>-75.447500000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>77665.929995</v>
+        <v>77665.929994999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.573869</v>
+        <v>21.573868999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.385000</v>
+        <v>979.38499999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.879900</v>
+        <v>-79.879900000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>77676.564716</v>
+        <v>77676.564715999993</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.576824</v>
+        <v>21.576823999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.595000</v>
+        <v>987.59500000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.155400</v>
+        <v>-91.1554</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>77687.288750</v>
+        <v>77687.288750000007</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.579802</v>
+        <v>21.579802000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.497000</v>
+        <v>997.49699999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.491000</v>
+        <v>-108.491</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>77698.094560</v>
+        <v>77698.094559999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.582804</v>
+        <v>21.582803999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.910000</v>
+        <v>-123.91</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>77708.750642</v>
+        <v>77708.750641999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.585764</v>
+        <v>21.585764000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.776000</v>
+        <v>-194.77600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>77719.507844</v>
+        <v>77719.507844000007</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.588752</v>
+        <v>21.588751999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.274000</v>
+        <v>-309.274</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>77730.718924</v>
+        <v>77730.718924000001</v>
       </c>
       <c r="BO7" s="1">
         <v>21.591866</v>
       </c>
       <c r="BP7" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-488.597000</v>
+        <v>-488.59699999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>77741.507408</v>
+        <v>77741.507408000005</v>
       </c>
       <c r="BT7" s="1">
         <v>21.594863</v>
       </c>
       <c r="BU7" s="1">
-        <v>1340.860000</v>
+        <v>1340.86</v>
       </c>
       <c r="BV7" s="1">
-        <v>-684.378000</v>
+        <v>-684.37800000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>77752.375773</v>
+        <v>77752.375773000007</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.597882</v>
+        <v>21.597881999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1475.820000</v>
+        <v>1475.82</v>
       </c>
       <c r="CA7" s="1">
-        <v>-891.810000</v>
+        <v>-891.81</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>77763.819962</v>
+        <v>77763.819961999994</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.601061</v>
+        <v>21.601061000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1824.700000</v>
+        <v>1824.7</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1382.390000</v>
+        <v>-1382.39</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>77592.462608</v>
+        <v>77592.462608000002</v>
       </c>
       <c r="B8" s="1">
         <v>21.553462</v>
       </c>
       <c r="C8" s="1">
-        <v>902.173000</v>
+        <v>902.173</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.805000</v>
+        <v>-198.80500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>77603.247920</v>
+        <v>77603.247919999994</v>
       </c>
       <c r="G8" s="1">
-        <v>21.556458</v>
+        <v>21.556457999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>920.632000</v>
+        <v>920.63199999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.237000</v>
+        <v>-169.23699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>77613.721599</v>
+        <v>77613.721598999997</v>
       </c>
       <c r="L8" s="1">
-        <v>21.559367</v>
+        <v>21.559367000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>945.081000</v>
+        <v>945.08100000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.356000</v>
+        <v>-121.35599999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>77624.204058</v>
+        <v>77624.204058000003</v>
       </c>
       <c r="Q8" s="1">
         <v>21.562279</v>
       </c>
       <c r="R8" s="1">
-        <v>952.257000</v>
+        <v>952.25699999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.978000</v>
+        <v>-104.97799999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>77634.534227</v>
+        <v>77634.534226999996</v>
       </c>
       <c r="V8" s="1">
-        <v>21.565148</v>
+        <v>21.565148000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>959.315000</v>
+        <v>959.31500000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.805400</v>
+        <v>-89.805400000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>77644.974550</v>
+        <v>77644.974549999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.568048</v>
+        <v>21.568048000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>967.089000</v>
+        <v>967.08900000000006</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.948300</v>
+        <v>-77.948300000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>77655.447048</v>
+        <v>77655.447048000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.570958</v>
+        <v>21.570958000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>972.011000</v>
+        <v>972.01099999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.498100</v>
+        <v>-75.498099999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>77666.281658</v>
+        <v>77666.281658000007</v>
       </c>
       <c r="AK8" s="1">
         <v>21.573967</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.411000</v>
+        <v>979.41099999999994</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.874500</v>
+        <v>-79.874499999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>77676.924315</v>
+        <v>77676.924314999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.576923</v>
+        <v>21.576923000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.584000</v>
+        <v>987.58399999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.130300</v>
+        <v>-91.130300000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>77687.652318</v>
+        <v>77687.652317999993</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.579903</v>
+        <v>21.579903000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.515000</v>
+        <v>997.51499999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>77698.454160</v>
+        <v>77698.454159999994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.582904</v>
+        <v>21.582903999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>77709.474272</v>
+        <v>77709.474272000007</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.585965</v>
+        <v>21.585965000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1044.690000</v>
+        <v>1044.69</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.781000</v>
+        <v>-194.78100000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>77719.868436</v>
+        <v>77719.868436000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.588852</v>
+        <v>21.588851999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.254000</v>
+        <v>-309.25400000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>77731.133572</v>
+        <v>77731.133572000006</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.591982</v>
+        <v>21.591982000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-488.578000</v>
+        <v>-488.57799999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>77741.918967</v>
+        <v>77741.918967000005</v>
       </c>
       <c r="BT8" s="1">
         <v>21.594977</v>
       </c>
       <c r="BU8" s="1">
-        <v>1340.880000</v>
+        <v>1340.88</v>
       </c>
       <c r="BV8" s="1">
-        <v>-684.441000</v>
+        <v>-684.44100000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>77753.139111</v>
+        <v>77753.139110999997</v>
       </c>
       <c r="BY8" s="1">
         <v>21.598094</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1475.830000</v>
+        <v>1475.83</v>
       </c>
       <c r="CA8" s="1">
-        <v>-891.571000</v>
+        <v>-891.57100000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>77764.679495</v>
+        <v>77764.679495000004</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.601300</v>
+        <v>21.601299999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1825.690000</v>
+        <v>1825.69</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1382.100000</v>
+        <v>-1382.1</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>77592.813281</v>
+        <v>77592.813280999995</v>
       </c>
       <c r="B9" s="1">
         <v>21.553559</v>
       </c>
       <c r="C9" s="1">
-        <v>902.089000</v>
+        <v>902.08900000000006</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.786000</v>
+        <v>-198.786</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>77603.599246</v>
+        <v>77603.599245999998</v>
       </c>
       <c r="G9" s="1">
-        <v>21.556555</v>
+        <v>21.556554999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>920.346000</v>
+        <v>920.346</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.136000</v>
+        <v>-169.136</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>77614.064336</v>
+        <v>77614.064335999996</v>
       </c>
       <c r="L9" s="1">
         <v>21.559462</v>
       </c>
       <c r="M9" s="1">
-        <v>944.986000</v>
+        <v>944.98599999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.155000</v>
+        <v>-121.155</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>77624.630145</v>
+        <v>77624.630145000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.562397</v>
+        <v>21.562397000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>952.285000</v>
+        <v>952.28499999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.973000</v>
+        <v>-104.973</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>77634.803073</v>
+        <v>77634.803073000003</v>
       </c>
       <c r="V9" s="1">
         <v>21.565223</v>
       </c>
       <c r="W9" s="1">
-        <v>959.299000</v>
+        <v>959.29899999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.786200</v>
+        <v>-89.786199999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>77645.254757</v>
+        <v>77645.254757000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.568126</v>
+        <v>21.568125999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>967.002000</v>
+        <v>967.00199999999995</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.945900</v>
+        <v>-77.945899999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>77655.789783</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.571053</v>
+        <v>21.571052999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.980000</v>
+        <v>971.98</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.511500</v>
+        <v>-75.511499999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>77666.628361</v>
+        <v>77666.628360999995</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.574063</v>
+        <v>21.574062999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.426000</v>
+        <v>979.42600000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.865700</v>
+        <v>-79.865700000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>77677.283452</v>
+        <v>77677.283452000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.577023</v>
+        <v>21.577023000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.580000</v>
+        <v>987.58</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.156400</v>
+        <v>-91.156400000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>77688.380908</v>
+        <v>77688.380908000006</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.580106</v>
+        <v>21.580106000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.498000</v>
+        <v>997.49800000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.488000</v>
+        <v>-108.488</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>77699.173856</v>
+        <v>77699.173855999994</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.583104</v>
+        <v>21.583103999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.935000</v>
+        <v>-123.935</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>77709.834368</v>
+        <v>77709.834367999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.586065</v>
+        <v>21.586065000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1044.720000</v>
+        <v>1044.72</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.753000</v>
+        <v>-194.75299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>77720.241927</v>
+        <v>77720.241926999995</v>
       </c>
       <c r="BJ9" s="1">
         <v>21.588956</v>
       </c>
       <c r="BK9" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.249000</v>
+        <v>-309.24900000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>77731.527891</v>
+        <v>77731.527891000005</v>
       </c>
       <c r="BO9" s="1">
         <v>21.592091</v>
       </c>
       <c r="BP9" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-488.592000</v>
+        <v>-488.59199999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>77742.643750</v>
+        <v>77742.643750000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.595179</v>
+        <v>21.595179000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1341.000000</v>
+        <v>1341</v>
       </c>
       <c r="BV9" s="1">
-        <v>-684.525000</v>
+        <v>-684.52499999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>77753.255639</v>
+        <v>77753.255638999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.598127</v>
+        <v>21.598127000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1475.730000</v>
+        <v>1475.73</v>
       </c>
       <c r="CA9" s="1">
-        <v>-891.817000</v>
+        <v>-891.81700000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>77764.894759</v>
+        <v>77764.894759000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.601360</v>
+        <v>21.60136</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.820000</v>
+        <v>1825.82</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1382.000000</v>
+        <v>-1382</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>77593.154490</v>
+        <v>77593.154490000001</v>
       </c>
       <c r="B10" s="1">
-        <v>21.553654</v>
+        <v>21.553654000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>902.177000</v>
+        <v>902.17700000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.726000</v>
+        <v>-198.726</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>77604.023324</v>
+        <v>77604.023323999994</v>
       </c>
       <c r="G10" s="1">
         <v>21.556673</v>
       </c>
       <c r="H10" s="1">
-        <v>920.471000</v>
+        <v>920.471</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.257000</v>
+        <v>-169.25700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>77614.547934</v>
+        <v>77614.547934000002</v>
       </c>
       <c r="L10" s="1">
         <v>21.559597</v>
       </c>
       <c r="M10" s="1">
-        <v>944.960000</v>
+        <v>944.96</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.238000</v>
+        <v>-121.238</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>77624.908374</v>
+        <v>77624.908374000006</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.562475</v>
+        <v>21.562474999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>952.282000</v>
+        <v>952.28200000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.989000</v>
+        <v>-104.989</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>77635.145803</v>
+        <v>77635.145803000007</v>
       </c>
       <c r="V10" s="1">
-        <v>21.565318</v>
+        <v>21.565318000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>959.488000</v>
+        <v>959.48800000000006</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.763700</v>
+        <v>-89.7637</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>77645.601957</v>
+        <v>77645.601957000006</v>
       </c>
       <c r="AA10" s="1">
         <v>21.568223</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.103000</v>
+        <v>967.10299999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-78.038900</v>
+        <v>-78.038899999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>77656.132023</v>
+        <v>77656.132022999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.571148</v>
+        <v>21.571148000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.030000</v>
+        <v>972.03</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.482700</v>
+        <v>-75.482699999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>77667.325736</v>
+        <v>77667.325735999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.574257</v>
+        <v>21.574256999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.408000</v>
+        <v>979.40800000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.868400</v>
+        <v>-79.868399999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>77678.003115</v>
@@ -2657,375 +3073,375 @@
         <v>21.577223</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.590000</v>
+        <v>987.59</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.136500</v>
+        <v>-91.136499999999998</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>77688.762331</v>
+        <v>77688.762331000005</v>
       </c>
       <c r="AU10" s="1">
         <v>21.580212</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.511000</v>
+        <v>997.51099999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.476000</v>
+        <v>-108.476</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>77699.530478</v>
+        <v>77699.530478000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.583203</v>
+        <v>21.583203000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.908000</v>
+        <v>-123.908</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>77710.194497</v>
+        <v>77710.194497000004</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.586165</v>
+        <v>21.586165000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.798000</v>
+        <v>-194.798</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>77720.923426</v>
+        <v>77720.923425999994</v>
       </c>
       <c r="BJ10" s="1">
-        <v>21.589145</v>
+        <v>21.589144999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.241000</v>
+        <v>-309.24099999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>77732.340834</v>
+        <v>77732.340834000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.592317</v>
+        <v>21.592317000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-488.596000</v>
+        <v>-488.596</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>77742.774181</v>
+        <v>77742.774181000001</v>
       </c>
       <c r="BT10" s="1">
         <v>21.595215</v>
       </c>
       <c r="BU10" s="1">
-        <v>1341.100000</v>
+        <v>1341.1</v>
       </c>
       <c r="BV10" s="1">
-        <v>-684.498000</v>
+        <v>-684.49800000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>77753.680214</v>
+        <v>77753.680214000007</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.598245</v>
+        <v>21.598244999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1475.850000</v>
+        <v>1475.85</v>
       </c>
       <c r="CA10" s="1">
-        <v>-891.637000</v>
+        <v>-891.63699999999994</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>77765.414071</v>
+        <v>77765.414071000007</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.601504</v>
+        <v>21.601503999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1824.600000</v>
+        <v>1824.6</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1382.330000</v>
+        <v>-1382.33</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>77593.576089</v>
+        <v>77593.576088999995</v>
       </c>
       <c r="B11" s="1">
-        <v>21.553771</v>
+        <v>21.553771000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>902.065000</v>
+        <v>902.06500000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.833000</v>
+        <v>-198.833</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>77604.301084</v>
+        <v>77604.301084000006</v>
       </c>
       <c r="G11" s="1">
-        <v>21.556750</v>
+        <v>21.556750000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>920.711000</v>
+        <v>920.71100000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.312000</v>
+        <v>-169.31200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>77614.793486</v>
+        <v>77614.793485999995</v>
       </c>
       <c r="L11" s="1">
-        <v>21.559665</v>
+        <v>21.559664999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>944.900000</v>
+        <v>944.9</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.176000</v>
+        <v>-121.176</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>77625.254113</v>
+        <v>77625.254113000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.562571</v>
+        <v>21.562570999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>952.287000</v>
+        <v>952.28700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.004000</v>
+        <v>-105.004</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>77635.488562</v>
+        <v>77635.488561999999</v>
       </c>
       <c r="V11" s="1">
-        <v>21.565413</v>
+        <v>21.565412999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>959.447000</v>
+        <v>959.447</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.744200</v>
+        <v>-89.744200000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>77645.951636</v>
+        <v>77645.951635999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>21.568320</v>
+        <v>21.56832</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.026000</v>
+        <v>967.02599999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.932500</v>
+        <v>-77.932500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>77656.821462</v>
+        <v>77656.821462000007</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.571339</v>
+        <v>21.571338999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>972.018000</v>
+        <v>972.01800000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.343000</v>
+        <v>-75.343000000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>77667.674443</v>
+        <v>77667.674442999996</v>
       </c>
       <c r="AK11" s="1">
         <v>21.574354</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.391000</v>
+        <v>979.39099999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.888500</v>
+        <v>-79.888499999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>77678.393466</v>
+        <v>77678.393465999994</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.577332</v>
+        <v>21.577331999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.585000</v>
+        <v>987.58500000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.143000</v>
+        <v>-91.143000000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>77689.137307</v>
+        <v>77689.137306999997</v>
       </c>
       <c r="AU11" s="1">
         <v>21.580316</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.518000</v>
+        <v>997.51800000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.495000</v>
+        <v>-108.495</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>77700.197135</v>
+        <v>77700.197134999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.583388</v>
+        <v>21.583387999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.921000</v>
+        <v>-123.92100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>77710.873487</v>
+        <v>77710.873487000004</v>
       </c>
       <c r="BE11" s="1">
         <v>21.586354</v>
       </c>
       <c r="BF11" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.790000</v>
+        <v>-194.79</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>77721.366354</v>
+        <v>77721.366353999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.589268</v>
+        <v>21.589268000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1111.660000</v>
+        <v>1111.6600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.286000</v>
+        <v>-309.286</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>77732.761938</v>
+        <v>77732.761937999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.592434</v>
+        <v>21.592434000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-488.598000</v>
+        <v>-488.59800000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>77743.210661</v>
+        <v>77743.210661000005</v>
       </c>
       <c r="BT11" s="1">
         <v>21.595336</v>
       </c>
       <c r="BU11" s="1">
-        <v>1341.160000</v>
+        <v>1341.16</v>
       </c>
       <c r="BV11" s="1">
-        <v>-684.585000</v>
+        <v>-684.58500000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>77754.098837</v>
+        <v>77754.098836999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.598361</v>
+        <v>21.598361000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1475.810000</v>
+        <v>1475.81</v>
       </c>
       <c r="CA11" s="1">
-        <v>-891.773000</v>
+        <v>-891.77300000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>77765.930903</v>
@@ -3034,273 +3450,273 @@
         <v>21.601647</v>
       </c>
       <c r="CE11" s="1">
-        <v>1825.000000</v>
+        <v>1825</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1381.780000</v>
+        <v>-1381.78</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>77593.851370</v>
+        <v>77593.851370000004</v>
       </c>
       <c r="B12" s="1">
-        <v>21.553848</v>
+        <v>21.553847999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>902.255000</v>
+        <v>902.255</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.804000</v>
+        <v>-198.804</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>77604.644328</v>
+        <v>77604.644327999995</v>
       </c>
       <c r="G12" s="1">
         <v>21.556846</v>
       </c>
       <c r="H12" s="1">
-        <v>920.462000</v>
+        <v>920.46199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.295000</v>
+        <v>-169.29499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>77615.144126</v>
+        <v>77615.144125999999</v>
       </c>
       <c r="L12" s="1">
-        <v>21.559762</v>
+        <v>21.559761999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>944.991000</v>
+        <v>944.99099999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.139000</v>
+        <v>-121.139</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>77625.610704</v>
+        <v>77625.610704000006</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.562670</v>
+        <v>21.562670000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>952.250000</v>
+        <v>952.25</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.953000</v>
+        <v>-104.953</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>77636.178225</v>
+        <v>77636.178224999996</v>
       </c>
       <c r="V12" s="1">
-        <v>21.565605</v>
+        <v>21.565605000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>959.349000</v>
+        <v>959.34900000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.774100</v>
+        <v>-89.774100000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>77646.649011</v>
+        <v>77646.649011000001</v>
       </c>
       <c r="AA12" s="1">
         <v>21.568514</v>
       </c>
       <c r="AB12" s="1">
-        <v>967.034000</v>
+        <v>967.03399999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.926000</v>
+        <v>-77.926000000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>77657.163703</v>
+        <v>77657.163702999998</v>
       </c>
       <c r="AF12" s="1">
         <v>21.571434</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.791000</v>
+        <v>971.79100000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.547600</v>
+        <v>-75.547600000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>77668.022120</v>
+        <v>77668.022119999994</v>
       </c>
       <c r="AK12" s="1">
         <v>21.574451</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.397000</v>
+        <v>979.39700000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.867300</v>
+        <v>-79.8673</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>77678.781337</v>
+        <v>77678.781336999993</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.577439</v>
+        <v>21.577438999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.586000</v>
+        <v>987.58600000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.145800</v>
+        <v>-91.145799999999994</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>77689.819306</v>
+        <v>77689.819306000005</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.580505</v>
+        <v>21.580504999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.497000</v>
+        <v>997.49699999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.458000</v>
+        <v>-108.458</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>77700.632588</v>
+        <v>77700.632587999993</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.583509</v>
+        <v>21.583508999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.904000</v>
+        <v>-123.904</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>77711.300544</v>
+        <v>77711.300543999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.586472</v>
+        <v>21.586472000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.782000</v>
+        <v>-194.78200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>77721.742320</v>
+        <v>77721.742320000005</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.589373</v>
+        <v>21.589372999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.259000</v>
+        <v>-309.25900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>77733.160225</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.592545</v>
+        <v>21.592545000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1219.910000</v>
+        <v>1219.9100000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-488.582000</v>
+        <v>-488.58199999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>77743.639205</v>
+        <v>77743.639204999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.595455</v>
+        <v>21.595455000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1341.150000</v>
+        <v>1341.15</v>
       </c>
       <c r="BV12" s="1">
-        <v>-684.441000</v>
+        <v>-684.44100000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>77754.547717</v>
+        <v>77754.547716999994</v>
       </c>
       <c r="BY12" s="1">
         <v>21.598485</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1475.750000</v>
+        <v>1475.75</v>
       </c>
       <c r="CA12" s="1">
-        <v>-891.790000</v>
+        <v>-891.79</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>77766.483262</v>
+        <v>77766.483261999994</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.601801</v>
+        <v>21.601800999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.740000</v>
+        <v>1825.74</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1381.930000</v>
+        <v>-1381.93</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>77594.195129</v>
       </c>
@@ -3308,770 +3724,770 @@
         <v>21.553943</v>
       </c>
       <c r="C13" s="1">
-        <v>902.192000</v>
+        <v>902.19200000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.707000</v>
+        <v>-198.70699999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>77604.988538</v>
+        <v>77604.988538000005</v>
       </c>
       <c r="G13" s="1">
-        <v>21.556941</v>
+        <v>21.556940999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>919.981000</v>
+        <v>919.98099999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.611000</v>
+        <v>-169.61099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>77615.844476</v>
+        <v>77615.844475999998</v>
       </c>
       <c r="L13" s="1">
-        <v>21.559957</v>
+        <v>21.559957000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>944.916000</v>
+        <v>944.91600000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.945000</v>
+        <v>-120.94499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>77626.304111</v>
+        <v>77626.304111000005</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.562862</v>
+        <v>21.562861999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>952.261000</v>
+        <v>952.26099999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.960000</v>
+        <v>-104.96</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>77636.521234</v>
       </c>
       <c r="V13" s="1">
-        <v>21.565700</v>
+        <v>21.5657</v>
       </c>
       <c r="W13" s="1">
-        <v>959.357000</v>
+        <v>959.35699999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.837000</v>
+        <v>-89.837000000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>77646.998692</v>
+        <v>77646.998691999994</v>
       </c>
       <c r="AA13" s="1">
-        <v>21.568611</v>
+        <v>21.568611000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>967.069000</v>
+        <v>967.06899999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.904800</v>
+        <v>-77.904799999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>77657.506933</v>
+        <v>77657.506932999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.571530</v>
+        <v>21.571529999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>972.098000</v>
+        <v>972.09799999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.402300</v>
+        <v>-75.402299999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>77668.705140</v>
+        <v>77668.705140000005</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.574640</v>
+        <v>21.574639999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.424000</v>
+        <v>979.42399999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.871300</v>
+        <v>-79.871300000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>77679.448490</v>
+        <v>77679.448489999995</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.577625</v>
+        <v>21.577625000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.577000</v>
+        <v>987.577</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.145800</v>
+        <v>-91.145799999999994</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>77690.266698</v>
+        <v>77690.266698000007</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.580630</v>
+        <v>21.580629999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.503000</v>
+        <v>997.50300000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.480000</v>
+        <v>-108.48</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>77700.989043</v>
+        <v>77700.989042999994</v>
       </c>
       <c r="AZ13" s="1">
-        <v>21.583608</v>
+        <v>21.583608000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.820000</v>
+        <v>1005.82</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.896000</v>
+        <v>-123.896</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>77711.660638</v>
+        <v>77711.660638000001</v>
       </c>
       <c r="BE13" s="1">
         <v>21.586572</v>
       </c>
       <c r="BF13" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>77722.116303</v>
+        <v>77722.116303000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.589477</v>
+        <v>21.589476999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1111.640000</v>
+        <v>1111.6400000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.289000</v>
+        <v>-309.28899999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>77733.590288</v>
+        <v>77733.590288000007</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.592664</v>
+        <v>21.592663999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-488.596000</v>
+        <v>-488.596</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>77744.064771</v>
+        <v>77744.064771000005</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.595574</v>
+        <v>21.595573999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1341.290000</v>
+        <v>1341.29</v>
       </c>
       <c r="BV13" s="1">
-        <v>-684.505000</v>
+        <v>-684.505</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>77754.970340</v>
+        <v>77754.97034</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.598603</v>
+        <v>21.598603000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1475.860000</v>
+        <v>1475.86</v>
       </c>
       <c r="CA13" s="1">
-        <v>-891.789000</v>
+        <v>-891.78899999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>77767.014660</v>
+        <v>77767.014660000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.601949</v>
+        <v>21.601949000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1824.570000</v>
+        <v>1824.57</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1382.340000</v>
+        <v>-1382.34</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>77594.537338</v>
+        <v>77594.537337999995</v>
       </c>
       <c r="B14" s="1">
-        <v>21.554038</v>
+        <v>21.554037999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>902.160000</v>
+        <v>902.16</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.842000</v>
+        <v>-198.84200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>77605.680954</v>
+        <v>77605.680953999996</v>
       </c>
       <c r="G14" s="1">
-        <v>21.557134</v>
+        <v>21.557134000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>919.746000</v>
+        <v>919.74599999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.309000</v>
+        <v>-169.309</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>77616.179276</v>
+        <v>77616.179275999995</v>
       </c>
       <c r="L14" s="1">
-        <v>21.560050</v>
+        <v>21.56005</v>
       </c>
       <c r="M14" s="1">
-        <v>944.918000</v>
+        <v>944.91800000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.229000</v>
+        <v>-121.229</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>77626.653791</v>
+        <v>77626.653791000004</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.562959</v>
+        <v>21.562958999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>952.295000</v>
+        <v>952.29499999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.959000</v>
+        <v>-104.959</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>77636.864434</v>
+        <v>77636.864434000003</v>
       </c>
       <c r="V14" s="1">
-        <v>21.565796</v>
+        <v>21.565795999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>959.356000</v>
+        <v>959.35599999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.730900</v>
+        <v>-89.730900000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>77647.351843</v>
+        <v>77647.351842999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>21.568709</v>
+        <v>21.568708999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>967.041000</v>
+        <v>967.04100000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.960800</v>
+        <v>-77.960800000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>77658.177028</v>
+        <v>77658.177028000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.571716</v>
+        <v>21.571715999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.028000</v>
+        <v>972.02800000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.470200</v>
+        <v>-75.470200000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>77669.068182</v>
+        <v>77669.068182000003</v>
       </c>
       <c r="AK14" s="1">
         <v>21.574741</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.424000</v>
+        <v>979.42399999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.864400</v>
+        <v>-79.864400000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>77679.862616</v>
+        <v>77679.862615999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.577740</v>
+        <v>21.577739999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.585000</v>
+        <v>987.58500000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.134300</v>
+        <v>-91.134299999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>77690.631755</v>
+        <v>77690.631754999995</v>
       </c>
       <c r="AU14" s="1">
         <v>21.580731</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.503000</v>
+        <v>997.50300000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>77701.350332</v>
+        <v>77701.350332000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.583708</v>
+        <v>21.583708000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.905000</v>
+        <v>-123.905</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>77712.024205</v>
+        <v>77712.024204999994</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.586673</v>
+        <v>21.586673000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.790000</v>
+        <v>-194.79</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>77722.538895</v>
+        <v>77722.538895000005</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.589594</v>
+        <v>21.589594000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.233000</v>
+        <v>-309.233</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>77733.976145</v>
+        <v>77733.976144999993</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.592771</v>
+        <v>21.592770999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-488.605000</v>
+        <v>-488.60500000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>77744.483394</v>
+        <v>77744.483393999995</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.595690</v>
+        <v>21.595690000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1341.290000</v>
+        <v>1341.29</v>
       </c>
       <c r="BV14" s="1">
-        <v>-684.421000</v>
+        <v>-684.42100000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>77755.391412</v>
+        <v>77755.391411999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.598720</v>
+        <v>21.59872</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1475.870000</v>
+        <v>1475.87</v>
       </c>
       <c r="CA14" s="1">
-        <v>-891.836000</v>
+        <v>-891.83600000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>77767.533476</v>
+        <v>77767.533475999997</v>
       </c>
       <c r="CD14" s="1">
         <v>21.602093</v>
       </c>
       <c r="CE14" s="1">
-        <v>1825.050000</v>
+        <v>1825.05</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1381.850000</v>
+        <v>-1381.85</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>77595.220327</v>
+        <v>77595.220327000003</v>
       </c>
       <c r="B15" s="1">
-        <v>21.554228</v>
+        <v>21.554227999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>902.369000</v>
+        <v>902.36900000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.735000</v>
+        <v>-198.73500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>77606.022697</v>
+        <v>77606.022696999993</v>
       </c>
       <c r="G15" s="1">
         <v>21.557229</v>
       </c>
       <c r="H15" s="1">
-        <v>920.135000</v>
+        <v>920.13499999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.037000</v>
+        <v>-169.03700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>77616.523499</v>
+        <v>77616.523499000003</v>
       </c>
       <c r="L15" s="1">
-        <v>21.560145</v>
+        <v>21.560144999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>944.900000</v>
+        <v>944.9</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.193000</v>
+        <v>-121.193</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>77627.004496</v>
+        <v>77627.004495999994</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.563057</v>
+        <v>21.563057000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>952.258000</v>
+        <v>952.25800000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.979000</v>
+        <v>-104.979</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>77637.532080</v>
+        <v>77637.532080000004</v>
       </c>
       <c r="V15" s="1">
-        <v>21.565981</v>
+        <v>21.565981000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>959.280000</v>
+        <v>959.28</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.698700</v>
+        <v>-89.698700000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>77648.019954</v>
+        <v>77648.019954000003</v>
       </c>
       <c r="AA15" s="1">
         <v>21.568894</v>
       </c>
       <c r="AB15" s="1">
-        <v>967.049000</v>
+        <v>967.04899999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.921100</v>
+        <v>-77.921099999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>77658.546549</v>
+        <v>77658.546549000006</v>
       </c>
       <c r="AF15" s="1">
         <v>21.571818</v>
       </c>
       <c r="AG15" s="1">
-        <v>972.040000</v>
+        <v>972.04</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.473400</v>
+        <v>-75.473399999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>77669.419351</v>
+        <v>77669.419351000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>21.574839</v>
+        <v>21.574839000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.402000</v>
+        <v>979.40200000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.885600</v>
+        <v>-79.885599999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>77680.247511</v>
+        <v>77680.247510999994</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.577847</v>
+        <v>21.577846999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.582000</v>
+        <v>987.58199999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.155500</v>
+        <v>-91.155500000000004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>77690.993833</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.580832</v>
+        <v>21.580832000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.499000</v>
+        <v>997.49900000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.479000</v>
+        <v>-108.479</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>77701.783307</v>
+        <v>77701.783307000005</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.583829</v>
+        <v>21.583829000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>77712.438215</v>
+        <v>77712.438215000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.586788</v>
+        <v>21.586787999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.784000</v>
+        <v>-194.78399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>77722.889071</v>
+        <v>77722.889070999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.589691</v>
+        <v>21.589690999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1111.650000</v>
+        <v>1111.6500000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.286000</v>
+        <v>-309.286</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>77734.398274</v>
+        <v>77734.398274000006</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.592888</v>
+        <v>21.592887999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-488.614000</v>
+        <v>-488.61399999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>77744.911441</v>
+        <v>77744.911441000004</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.595809</v>
+        <v>21.595808999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1341.340000</v>
+        <v>1341.34</v>
       </c>
       <c r="BV15" s="1">
-        <v>-684.395000</v>
+        <v>-684.39499999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>77755.840292</v>
+        <v>77755.840291999993</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.598845</v>
+        <v>21.598845000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1475.780000</v>
+        <v>1475.78</v>
       </c>
       <c r="CA15" s="1">
-        <v>-891.709000</v>
+        <v>-891.70899999999995</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>77768.083539</v>
+        <v>77768.083538999999</v>
       </c>
       <c r="CD15" s="1">
         <v>21.602245</v>
       </c>
       <c r="CE15" s="1">
-        <v>1825.750000</v>
+        <v>1825.75</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1381.860000</v>
+        <v>-1381.86</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>77595.561575</v>
       </c>
@@ -4079,513 +4495,513 @@
         <v>21.554323</v>
       </c>
       <c r="C16" s="1">
-        <v>902.278000</v>
+        <v>902.27800000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.733000</v>
+        <v>-198.733</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>77606.376345</v>
+        <v>77606.376344999997</v>
       </c>
       <c r="G16" s="1">
-        <v>21.557327</v>
+        <v>21.557327000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>920.378000</v>
+        <v>920.37800000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.583000</v>
+        <v>-169.583</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>77617.178218</v>
+        <v>77617.178218000001</v>
       </c>
       <c r="L16" s="1">
-        <v>21.560327</v>
+        <v>21.560327000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>944.899000</v>
+        <v>944.899</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.387000</v>
+        <v>-121.387</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>77627.662443</v>
+        <v>77627.662442999994</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.563240</v>
+        <v>21.56324</v>
       </c>
       <c r="R16" s="1">
-        <v>952.249000</v>
+        <v>952.24900000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.968000</v>
+        <v>-104.968</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>77637.900111</v>
+        <v>77637.900110999995</v>
       </c>
       <c r="V16" s="1">
-        <v>21.566083</v>
+        <v>21.566082999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>959.215000</v>
+        <v>959.21500000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.724900</v>
+        <v>-89.724900000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>77648.390973</v>
+        <v>77648.390973000001</v>
       </c>
       <c r="AA16" s="1">
         <v>21.568997</v>
       </c>
       <c r="AB16" s="1">
-        <v>967.079000</v>
+        <v>967.07899999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.959000</v>
+        <v>-77.959000000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>77658.893780</v>
+        <v>77658.893779999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.571915</v>
+        <v>21.571915000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.989000</v>
+        <v>971.98900000000003</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.634000</v>
+        <v>-75.634</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>77669.771045</v>
+        <v>77669.771045000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.574936</v>
+        <v>21.574936000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.400000</v>
+        <v>979.4</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.862000</v>
+        <v>-79.861999999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>77680.606119</v>
+        <v>77680.606119000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.577946</v>
+        <v>21.577946000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.591000</v>
+        <v>987.59100000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.128900</v>
+        <v>-91.128900000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>77691.442217</v>
+        <v>77691.442217000003</v>
       </c>
       <c r="AU16" s="1">
         <v>21.580956</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.504000</v>
+        <v>997.50400000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.499000</v>
+        <v>-108.499</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>77702.069994</v>
+        <v>77702.069994000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.583908</v>
+        <v>21.583908000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.820000</v>
+        <v>1005.82</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>77712.741457</v>
+        <v>77712.741456999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.586873</v>
+        <v>21.586873000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1044.690000</v>
+        <v>1044.69</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.781000</v>
+        <v>-194.78100000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>77723.262062</v>
+        <v>77723.262061999994</v>
       </c>
       <c r="BJ16" s="1">
-        <v>21.589795</v>
+        <v>21.589794999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.277000</v>
+        <v>-309.27699999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>77734.790607</v>
+        <v>77734.790607000003</v>
       </c>
       <c r="BO16" s="1">
         <v>21.592997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1219.910000</v>
+        <v>1219.9100000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-488.581000</v>
+        <v>-488.58100000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>77745.320641</v>
+        <v>77745.320640999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.595922</v>
+        <v>21.595922000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1341.340000</v>
+        <v>1341.34</v>
       </c>
       <c r="BV16" s="1">
-        <v>-684.327000</v>
+        <v>-684.327</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>77756.269331</v>
+        <v>77756.269331000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.598964</v>
+        <v>21.598963999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1475.880000</v>
+        <v>1475.88</v>
       </c>
       <c r="CA16" s="1">
-        <v>-891.792000</v>
+        <v>-891.79200000000003</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>77768.616551</v>
+        <v>77768.616550999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.602393</v>
+        <v>21.602392999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1824.490000</v>
+        <v>1824.49</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1382.510000</v>
+        <v>-1382.51</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>77595.905341</v>
+        <v>77595.905341000005</v>
       </c>
       <c r="B17" s="1">
-        <v>21.554418</v>
+        <v>21.554417999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>902.235000</v>
+        <v>902.23500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.829000</v>
+        <v>-198.82900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>77607.034040</v>
+        <v>77607.034039999999</v>
       </c>
       <c r="G17" s="1">
         <v>21.557509</v>
       </c>
       <c r="H17" s="1">
-        <v>920.735000</v>
+        <v>920.73500000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.651000</v>
+        <v>-169.65100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>77617.561130</v>
+        <v>77617.561130000002</v>
       </c>
       <c r="L17" s="1">
-        <v>21.560434</v>
+        <v>21.560434000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>944.962000</v>
+        <v>944.96199999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.175000</v>
+        <v>-121.175</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>77628.048540</v>
+        <v>77628.048540000003</v>
       </c>
       <c r="Q17" s="1">
         <v>21.563347</v>
       </c>
       <c r="R17" s="1">
-        <v>952.285000</v>
+        <v>952.28499999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.905000</v>
+        <v>-104.905</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>77638.251742</v>
+        <v>77638.251741999993</v>
       </c>
       <c r="V17" s="1">
         <v>21.566181</v>
       </c>
       <c r="W17" s="1">
-        <v>959.388000</v>
+        <v>959.38800000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.785100</v>
+        <v>-89.7851</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>77648.738657</v>
+        <v>77648.738656999994</v>
       </c>
       <c r="AA17" s="1">
         <v>21.569094</v>
       </c>
       <c r="AB17" s="1">
-        <v>967.052000</v>
+        <v>967.05200000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.948000</v>
+        <v>-77.947999999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>77659.234995</v>
+        <v>77659.234995000006</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.572010</v>
+        <v>21.572009999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.797000</v>
+        <v>971.79700000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.415500</v>
+        <v>-75.415499999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>77670.206501</v>
+        <v>77670.206500999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.575057</v>
+        <v>21.575057000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.392000</v>
+        <v>979.39200000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.872400</v>
+        <v>-79.872399999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>77681.044582</v>
+        <v>77681.044582000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.578068</v>
+        <v>21.578067999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.584000</v>
+        <v>987.58399999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.145200</v>
+        <v>-91.145200000000003</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>77691.723313</v>
+        <v>77691.723312999995</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.581034</v>
+        <v>21.581033999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.505000</v>
+        <v>997.505</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.485000</v>
+        <v>-108.485</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>77702.427610</v>
+        <v>77702.427609999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.584008</v>
+        <v>21.584008000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.918000</v>
+        <v>-123.91800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>77713.106475</v>
+        <v>77713.106474999993</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.586974</v>
+        <v>21.586974000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.777000</v>
+        <v>-194.77699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>77723.639022</v>
+        <v>77723.639022000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.589900</v>
+        <v>21.5899</v>
       </c>
       <c r="BK17" s="1">
-        <v>1111.640000</v>
+        <v>1111.6400000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.291000</v>
+        <v>-309.291</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>77735.218128</v>
+        <v>77735.218127999993</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.593116</v>
+        <v>21.593115999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1219.890000</v>
+        <v>1219.8900000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-488.612000</v>
+        <v>-488.61200000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>77745.752656</v>
+        <v>77745.752655999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.596042</v>
+        <v>21.596042000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1341.360000</v>
+        <v>1341.36</v>
       </c>
       <c r="BV17" s="1">
-        <v>-684.250000</v>
+        <v>-684.25</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>77756.689938</v>
+        <v>77756.689937999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.599081</v>
+        <v>21.599081000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1475.820000</v>
+        <v>1475.82</v>
       </c>
       <c r="CA17" s="1">
-        <v>-891.769000</v>
+        <v>-891.76900000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>77769.133073</v>
+        <v>77769.133073000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.602537</v>
+        <v>21.602537000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1824.970000</v>
+        <v>1824.97</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1381.990000</v>
+        <v>-1381.99</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>77596.571958</v>
       </c>
@@ -4593,602 +5009,602 @@
         <v>21.554603</v>
       </c>
       <c r="C18" s="1">
-        <v>902.072000</v>
+        <v>902.072</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.719000</v>
+        <v>-198.71899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>77607.410536</v>
+        <v>77607.410535999996</v>
       </c>
       <c r="G18" s="1">
-        <v>21.557614</v>
+        <v>21.557614000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>921.088000</v>
+        <v>921.08799999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.929000</v>
+        <v>-168.929</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>77617.907337</v>
+        <v>77617.907336999997</v>
       </c>
       <c r="L18" s="1">
-        <v>21.560530</v>
+        <v>21.56053</v>
       </c>
       <c r="M18" s="1">
-        <v>944.828000</v>
+        <v>944.82799999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.266000</v>
+        <v>-121.26600000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>77628.397724</v>
+        <v>77628.397723999995</v>
       </c>
       <c r="Q18" s="1">
         <v>21.563444</v>
       </c>
       <c r="R18" s="1">
-        <v>952.274000</v>
+        <v>952.274</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.874000</v>
+        <v>-104.874</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>77638.593982</v>
+        <v>77638.593982000006</v>
       </c>
       <c r="V18" s="1">
-        <v>21.566276</v>
+        <v>21.566275999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>959.441000</v>
+        <v>959.44100000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.851500</v>
+        <v>-89.851500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>77649.170709</v>
+        <v>77649.170708999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.569214</v>
+        <v>21.569213999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>967.072000</v>
+        <v>967.072</v>
       </c>
       <c r="AC18" s="1">
-        <v>-78.011800</v>
+        <v>-78.011799999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>77659.663571</v>
+        <v>77659.663570999997</v>
       </c>
       <c r="AF18" s="1">
         <v>21.572129</v>
       </c>
       <c r="AG18" s="1">
-        <v>972.040000</v>
+        <v>972.04</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.540200</v>
+        <v>-75.540199999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>77670.472357</v>
+        <v>77670.472357000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.575131</v>
+        <v>21.575130999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.422000</v>
+        <v>979.42200000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.865900</v>
+        <v>-79.865899999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>77681.326347</v>
+        <v>77681.326346999995</v>
       </c>
       <c r="AP18" s="1">
         <v>21.578146</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.552000</v>
+        <v>987.55200000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.131200</v>
+        <v>-91.131200000000007</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>77692.090487</v>
+        <v>77692.090486999994</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.581136</v>
+        <v>21.581136000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.498000</v>
+        <v>997.49800000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>77702.789194</v>
+        <v>77702.789193999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.584108</v>
+        <v>21.584108000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>77713.467563</v>
+        <v>77713.467562999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.587074</v>
+        <v>21.587074000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1044.690000</v>
+        <v>1044.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.781000</v>
+        <v>-194.78100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>77724.389965</v>
+        <v>77724.389964999995</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.590108</v>
+        <v>21.590108000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1111.620000</v>
+        <v>1111.6199999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.285000</v>
+        <v>-309.28500000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>77735.612446</v>
+        <v>77735.612445999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.593226</v>
+        <v>21.593226000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1219.910000</v>
+        <v>1219.9100000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-488.589000</v>
+        <v>-488.589</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>77746.180208</v>
+        <v>77746.180208000005</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.596161</v>
+        <v>21.596160999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="BV18" s="1">
-        <v>-684.155000</v>
+        <v>-684.15499999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>77757.115010</v>
+        <v>77757.115009999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.599199</v>
+        <v>21.599198999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1475.690000</v>
+        <v>1475.69</v>
       </c>
       <c r="CA18" s="1">
-        <v>-891.740000</v>
+        <v>-891.74</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>77769.996608</v>
+        <v>77769.996608000001</v>
       </c>
       <c r="CD18" s="1">
         <v>21.602777</v>
       </c>
       <c r="CE18" s="1">
-        <v>1825.750000</v>
+        <v>1825.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1381.720000</v>
+        <v>-1381.72</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>77596.927557</v>
+        <v>77596.927557000003</v>
       </c>
       <c r="B19" s="1">
-        <v>21.554702</v>
+        <v>21.554701999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>902.228000</v>
+        <v>902.22799999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.688000</v>
+        <v>-198.68799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>77607.752775</v>
+        <v>77607.752775000001</v>
       </c>
       <c r="G19" s="1">
-        <v>21.557709</v>
+        <v>21.557708999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>920.785000</v>
+        <v>920.78499999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.462000</v>
+        <v>-169.46199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>77618.256025</v>
+        <v>77618.256024999995</v>
       </c>
       <c r="L19" s="1">
         <v>21.560627</v>
       </c>
       <c r="M19" s="1">
-        <v>944.967000</v>
+        <v>944.96699999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.153000</v>
+        <v>-121.15300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>77628.746411</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.563541</v>
+        <v>21.563541000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>952.323000</v>
+        <v>952.32299999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.905000</v>
+        <v>-104.905</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>77639.013134</v>
+        <v>77639.013133999993</v>
       </c>
       <c r="V19" s="1">
-        <v>21.566393</v>
+        <v>21.566393000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>959.473000</v>
+        <v>959.47299999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.791600</v>
+        <v>-89.791600000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>77649.439504</v>
+        <v>77649.439503999994</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.569289</v>
+        <v>21.569289000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>967.105000</v>
+        <v>967.10500000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.949000</v>
+        <v>-77.948999999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>77659.933362</v>
+        <v>77659.933361999996</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.572204</v>
+        <v>21.572203999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>972.073000</v>
+        <v>972.07299999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.471200</v>
+        <v>-75.471199999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>77670.820585</v>
+        <v>77670.820584999994</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.575228</v>
+        <v>21.575227999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.389000</v>
+        <v>979.38900000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.867100</v>
+        <v>-79.867099999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>77681.688885</v>
+        <v>77681.688884999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.578247</v>
+        <v>21.578247000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.581000</v>
+        <v>987.58100000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.149700</v>
+        <v>-91.149699999999996</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>77692.454055</v>
+        <v>77692.454054999995</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.581237</v>
+        <v>21.581237000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.516000</v>
+        <v>997.51599999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.499000</v>
+        <v>-108.499</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>77703.506409</v>
+        <v>77703.506408999994</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.584307</v>
+        <v>21.584306999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.921000</v>
+        <v>-123.92100000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>77714.194234</v>
+        <v>77714.194233999995</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.587276</v>
+        <v>21.587275999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1044.690000</v>
+        <v>1044.69</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.804000</v>
+        <v>-194.804</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>77724.763452</v>
+        <v>77724.763451999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.590212</v>
+        <v>21.590212000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.290000</v>
+        <v>-309.29000000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>77736.036078</v>
+        <v>77736.036078000005</v>
       </c>
       <c r="BO19" s="1">
-        <v>21.593343</v>
+        <v>21.593343000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-488.613000</v>
+        <v>-488.613</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>77746.592879</v>
+        <v>77746.592879000003</v>
       </c>
       <c r="BT19" s="1">
         <v>21.596276</v>
       </c>
       <c r="BU19" s="1">
-        <v>1341.370000</v>
+        <v>1341.37</v>
       </c>
       <c r="BV19" s="1">
-        <v>-684.062000</v>
+        <v>-684.06200000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>77757.844656</v>
+        <v>77757.844656000001</v>
       </c>
       <c r="BY19" s="1">
         <v>21.599401</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1475.860000</v>
+        <v>1475.86</v>
       </c>
       <c r="CA19" s="1">
-        <v>-891.719000</v>
+        <v>-891.71900000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>77770.216832</v>
+        <v>77770.216832000006</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.602838</v>
+        <v>21.602837999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1824.380000</v>
+        <v>1824.38</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1382.330000</v>
+        <v>-1382.33</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>77597.274757</v>
+        <v>77597.274757000007</v>
       </c>
       <c r="B20" s="1">
-        <v>21.554799</v>
+        <v>21.554798999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.088000</v>
+        <v>902.08799999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.796000</v>
+        <v>-198.79599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>77608.099446</v>
+        <v>77608.099445999993</v>
       </c>
       <c r="G20" s="1">
-        <v>21.557805</v>
+        <v>21.557804999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>920.133000</v>
+        <v>920.13300000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.685000</v>
+        <v>-169.685</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>77618.689529</v>
+        <v>77618.689528999996</v>
       </c>
       <c r="L20" s="1">
-        <v>21.560747</v>
+        <v>21.560746999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>944.954000</v>
+        <v>944.95399999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.201000</v>
+        <v>-121.20099999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>77629.165035</v>
+        <v>77629.165034999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.563657</v>
+        <v>21.563656999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>952.289000</v>
+        <v>952.28899999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.917000</v>
+        <v>-104.917</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>77639.293343</v>
+        <v>77639.293342999998</v>
       </c>
       <c r="V20" s="1">
-        <v>21.566470</v>
+        <v>21.566469999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>959.422000</v>
+        <v>959.42200000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.852900</v>
+        <v>-89.852900000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>77649.787231</v>
+        <v>77649.787230999995</v>
       </c>
       <c r="AA20" s="1">
         <v>21.569385</v>
       </c>
       <c r="AB20" s="1">
-        <v>967.071000</v>
+        <v>967.07100000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.989900</v>
+        <v>-77.989900000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>77660.274114</v>
@@ -5197,345 +5613,345 @@
         <v>21.572298</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.943000</v>
+        <v>971.94299999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.349000</v>
+        <v>-75.349000000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>77671.170227</v>
+        <v>77671.170226999995</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.575325</v>
+        <v>21.575324999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.390000</v>
+        <v>979.39</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.879300</v>
+        <v>-79.879300000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>77682.374852</v>
+        <v>77682.374851999994</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.578437</v>
+        <v>21.578437000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.580000</v>
+        <v>987.58</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.129400</v>
+        <v>-91.129400000000004</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>77693.179703</v>
+        <v>77693.179703000002</v>
       </c>
       <c r="AU20" s="1">
         <v>21.581439</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.503000</v>
+        <v>997.50300000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.495000</v>
+        <v>-108.495</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>77703.892296</v>
+        <v>77703.892296000005</v>
       </c>
       <c r="AZ20" s="1">
         <v>21.584415</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.925000</v>
+        <v>-123.925</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>77714.571162</v>
+        <v>77714.571161999993</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.587381</v>
+        <v>21.587381000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.786000</v>
+        <v>-194.786</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>77725.140908</v>
+        <v>77725.140908000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.590317</v>
+        <v>21.590316999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1111.650000</v>
+        <v>1111.6500000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.293000</v>
+        <v>-309.29300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>77736.742332</v>
+        <v>77736.742331999994</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.593540</v>
+        <v>21.593540000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-488.624000</v>
+        <v>-488.62400000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>77747.337376</v>
+        <v>77747.337375999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.596483</v>
+        <v>21.596482999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1341.280000</v>
+        <v>1341.28</v>
       </c>
       <c r="BV20" s="1">
-        <v>-684.044000</v>
+        <v>-684.04399999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>77757.955232</v>
+        <v>77757.955231999993</v>
       </c>
       <c r="BY20" s="1">
         <v>21.599432</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1475.870000</v>
+        <v>1475.87</v>
       </c>
       <c r="CA20" s="1">
-        <v>-891.755000</v>
+        <v>-891.755</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>77770.735647</v>
+        <v>77770.735646999994</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.602982</v>
+        <v>21.602982000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1825.170000</v>
+        <v>1825.17</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1383.440000</v>
+        <v>-1383.44</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>77597.628938</v>
+        <v>77597.628937999994</v>
       </c>
       <c r="B21" s="1">
         <v>21.554897</v>
       </c>
       <c r="C21" s="1">
-        <v>902.337000</v>
+        <v>902.33699999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.804000</v>
+        <v>-198.804</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>77608.516127</v>
+        <v>77608.516126999995</v>
       </c>
       <c r="G21" s="1">
         <v>21.557921</v>
       </c>
       <c r="H21" s="1">
-        <v>920.411000</v>
+        <v>920.41099999999994</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.128000</v>
+        <v>-169.12799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>77618.956872</v>
+        <v>77618.956871999995</v>
       </c>
       <c r="L21" s="1">
-        <v>21.560821</v>
+        <v>21.560821000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>945.048000</v>
+        <v>945.048</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.038000</v>
+        <v>-121.038</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>77629.450272</v>
+        <v>77629.450272000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.563736</v>
+        <v>21.563735999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>952.284000</v>
+        <v>952.28399999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.968000</v>
+        <v>-104.968</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>77639.632142</v>
+        <v>77639.632142000002</v>
       </c>
       <c r="V21" s="1">
         <v>21.566564</v>
       </c>
       <c r="W21" s="1">
-        <v>959.485000</v>
+        <v>959.48500000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.851700</v>
+        <v>-89.851699999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>77650.132911</v>
+        <v>77650.132910999993</v>
       </c>
       <c r="AA21" s="1">
         <v>21.569481</v>
       </c>
       <c r="AB21" s="1">
-        <v>967.052000</v>
+        <v>967.05200000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.947100</v>
+        <v>-77.947100000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>77660.622839</v>
+        <v>77660.622839000003</v>
       </c>
       <c r="AF21" s="1">
         <v>21.572395</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.990000</v>
+        <v>971.99</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.531700</v>
+        <v>-75.531700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>77671.866642</v>
+        <v>77671.866641999994</v>
       </c>
       <c r="AK21" s="1">
         <v>21.575519</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.392000</v>
+        <v>979.39200000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.863900</v>
+        <v>-79.863900000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>77682.766227</v>
       </c>
       <c r="AP21" s="1">
-        <v>21.578546</v>
+        <v>21.578545999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.583000</v>
+        <v>987.58299999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.135500</v>
+        <v>-91.135499999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>77693.575014</v>
+        <v>77693.575014000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.581549</v>
+        <v>21.581548999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.499000</v>
+        <v>997.49900000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.466000</v>
+        <v>-108.46599999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>77704.272759</v>
+        <v>77704.272758999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.584520</v>
+        <v>21.584520000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.924000</v>
+        <v>-123.92400000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>77714.930266</v>
+        <v>77714.930265999996</v>
       </c>
       <c r="BE21" s="1">
         <v>21.587481</v>
       </c>
       <c r="BF21" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>77725.827372</v>
@@ -5544,1360 +5960,1361 @@
         <v>21.590508</v>
       </c>
       <c r="BK21" s="1">
-        <v>1111.640000</v>
+        <v>1111.6400000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.276000</v>
+        <v>-309.27600000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>77736.850989</v>
+        <v>77736.850988999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.593570</v>
+        <v>21.59357</v>
       </c>
       <c r="BP21" s="1">
-        <v>1219.880000</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-488.612000</v>
+        <v>-488.61200000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>77747.453936</v>
+        <v>77747.453936000005</v>
       </c>
       <c r="BT21" s="1">
         <v>21.596515</v>
       </c>
       <c r="BU21" s="1">
-        <v>1341.260000</v>
+        <v>1341.26</v>
       </c>
       <c r="BV21" s="1">
-        <v>-683.985000</v>
+        <v>-683.98500000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>77758.391712</v>
+        <v>77758.391711999997</v>
       </c>
       <c r="BY21" s="1">
         <v>21.599553</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1475.860000</v>
+        <v>1475.86</v>
       </c>
       <c r="CA21" s="1">
-        <v>-891.713000</v>
+        <v>-891.71299999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>77771.252024</v>
+        <v>77771.252024000001</v>
       </c>
       <c r="CD21" s="1">
         <v>21.603126</v>
       </c>
       <c r="CE21" s="1">
-        <v>1825.920000</v>
+        <v>1825.92</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1382.610000</v>
+        <v>-1382.61</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>77598.319829</v>
       </c>
       <c r="B22" s="1">
-        <v>21.555089</v>
+        <v>21.555088999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>902.173000</v>
+        <v>902.173</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.774000</v>
+        <v>-198.774</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>77608.789383</v>
+        <v>77608.789382999996</v>
       </c>
       <c r="G22" s="1">
         <v>21.557997</v>
       </c>
       <c r="H22" s="1">
-        <v>920.989000</v>
+        <v>920.98900000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.804000</v>
+        <v>-169.804</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>77619.301095</v>
+        <v>77619.301095000003</v>
       </c>
       <c r="L22" s="1">
         <v>21.560917</v>
       </c>
       <c r="M22" s="1">
-        <v>945.039000</v>
+        <v>945.03899999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.136000</v>
+        <v>-121.136</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>77629.797434</v>
+        <v>77629.797433999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.563833</v>
+        <v>21.563832999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>952.258000</v>
+        <v>952.25800000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.917000</v>
+        <v>-104.917</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>77639.976829</v>
+        <v>77639.976829000007</v>
       </c>
       <c r="V22" s="1">
-        <v>21.566660</v>
+        <v>21.566659999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>959.279000</v>
+        <v>959.279</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.863500</v>
+        <v>-89.863500000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>77650.832766</v>
+        <v>77650.832766000007</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.569676</v>
+        <v>21.569676000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.925000</v>
+        <v>966.92499999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.970200</v>
+        <v>-77.970200000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>77661.309264</v>
+        <v>77661.309263999996</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.572586</v>
+        <v>21.572586000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>972.041000</v>
+        <v>972.04100000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.568400</v>
+        <v>-75.568399999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>77672.214802</v>
+        <v>77672.214802000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.575615</v>
+        <v>21.575614999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.390000</v>
+        <v>979.39</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.879500</v>
+        <v>-79.879499999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>77683.129796</v>
+        <v>77683.129795999994</v>
       </c>
       <c r="AP22" s="1">
         <v>21.578647</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.562000</v>
+        <v>987.56200000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.138100</v>
+        <v>-91.138099999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>77693.940599</v>
+        <v>77693.940598999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>21.581650</v>
+        <v>21.58165</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.511000</v>
+        <v>997.51099999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>77704.957703</v>
+        <v>77704.957702999993</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.584710</v>
+        <v>21.584710000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.937000</v>
+        <v>-123.937</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>77715.652441</v>
+        <v>77715.652440999998</v>
       </c>
       <c r="BE22" s="1">
         <v>21.587681</v>
       </c>
       <c r="BF22" s="1">
-        <v>1044.690000</v>
+        <v>1044.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.786000</v>
+        <v>-194.786</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>77726.267322</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.590630</v>
+        <v>21.590630000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.279000</v>
+        <v>-309.279</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>77737.274044</v>
+        <v>77737.274044000005</v>
       </c>
       <c r="BO22" s="1">
-        <v>21.593687</v>
+        <v>21.593686999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-488.596000</v>
+        <v>-488.596</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>77747.893887</v>
+        <v>77747.893886999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.596637</v>
+        <v>21.596637000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1341.220000</v>
+        <v>1341.22</v>
       </c>
       <c r="BV22" s="1">
-        <v>-684.013000</v>
+        <v>-684.01300000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>77758.810335</v>
+        <v>77758.810335000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.599670</v>
+        <v>21.59967</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1475.770000</v>
+        <v>1475.77</v>
       </c>
       <c r="CA22" s="1">
-        <v>-891.819000</v>
+        <v>-891.81899999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>77771.768355</v>
+        <v>77771.768354999993</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.603269</v>
+        <v>21.603269000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1826.150000</v>
+        <v>1826.15</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1383.190000</v>
+        <v>-1383.19</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>77598.660580</v>
+        <v>77598.660579999996</v>
       </c>
       <c r="B23" s="1">
         <v>21.555183</v>
       </c>
       <c r="C23" s="1">
-        <v>902.153000</v>
+        <v>902.15300000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.737000</v>
+        <v>-198.73699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>77609.132613</v>
+        <v>77609.132612999994</v>
       </c>
       <c r="G23" s="1">
-        <v>21.558092</v>
+        <v>21.558091999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>920.615000</v>
+        <v>920.61500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.414000</v>
+        <v>-169.41399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>77619.645815</v>
+        <v>77619.645814999996</v>
       </c>
       <c r="L23" s="1">
-        <v>21.561013</v>
+        <v>21.561012999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>944.979000</v>
+        <v>944.97900000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.185000</v>
+        <v>-121.185</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>77630.147113</v>
+        <v>77630.147112999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.563930</v>
+        <v>21.563929999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>952.273000</v>
+        <v>952.27300000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.918000</v>
+        <v>-104.91800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>77640.667259</v>
+        <v>77640.667258999994</v>
       </c>
       <c r="V23" s="1">
-        <v>21.566852</v>
+        <v>21.566852000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>959.430000</v>
+        <v>959.43</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.711700</v>
+        <v>-89.711699999999993</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>77651.179998</v>
+        <v>77651.179998000007</v>
       </c>
       <c r="AA23" s="1">
         <v>21.569772</v>
       </c>
       <c r="AB23" s="1">
-        <v>967.104000</v>
+        <v>967.10400000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.996100</v>
+        <v>-77.996099999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>77661.647039</v>
+        <v>77661.647039000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.572680</v>
+        <v>21.572679999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.947000</v>
+        <v>971.947</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.410100</v>
+        <v>-75.4101</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>77672.563490</v>
+        <v>77672.56349</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.575712</v>
+        <v>21.575711999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.392000</v>
+        <v>979.39200000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.864900</v>
+        <v>-79.864900000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>77683.803859</v>
+        <v>77683.803859000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.578834</v>
+        <v>21.578834000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.593000</v>
+        <v>987.59299999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.119200</v>
+        <v>-91.119200000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>77694.615660</v>
+        <v>77694.615659999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.581838</v>
+        <v>21.581838000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.503000</v>
+        <v>997.50300000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.489000</v>
+        <v>-108.489</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>77705.353014</v>
+        <v>77705.353013999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.584820</v>
+        <v>21.584820000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.923000</v>
+        <v>-123.923</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>77716.042829</v>
+        <v>77716.042828999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.587790</v>
+        <v>21.587789999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1044.710000</v>
+        <v>1044.71</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>77726.644815</v>
+        <v>77726.644815000007</v>
       </c>
       <c r="BJ23" s="1">
-        <v>21.590735</v>
+        <v>21.590734999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.283000</v>
+        <v>-309.28300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>77737.673333</v>
+        <v>77737.673332999999</v>
       </c>
       <c r="BO23" s="1">
         <v>21.593798</v>
       </c>
       <c r="BP23" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-488.599000</v>
+        <v>-488.59899999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>77748.302590</v>
+        <v>77748.302590000007</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.596751</v>
+        <v>21.596751000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1341.170000</v>
+        <v>1341.17</v>
       </c>
       <c r="BV23" s="1">
-        <v>-683.960000</v>
+        <v>-683.96</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>77759.239871</v>
+        <v>77759.239870999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.599789</v>
+        <v>21.599789000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1475.760000</v>
+        <v>1475.76</v>
       </c>
       <c r="CA23" s="1">
-        <v>-891.709000</v>
+        <v>-891.70899999999995</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>77772.321853</v>
+        <v>77772.321853000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.603423</v>
+        <v>21.603422999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1825.080000</v>
+        <v>1825.08</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1383.290000</v>
+        <v>-1383.29</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>77599.008770</v>
+        <v>77599.00877</v>
       </c>
       <c r="B24" s="1">
-        <v>21.555280</v>
+        <v>21.55528</v>
       </c>
       <c r="C24" s="1">
-        <v>902.143000</v>
+        <v>902.14300000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.748000</v>
+        <v>-198.74799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>77609.477829</v>
+        <v>77609.477828999996</v>
       </c>
       <c r="G24" s="1">
-        <v>21.558188</v>
+        <v>21.558188000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>920.537000</v>
+        <v>920.53700000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.427000</v>
+        <v>-169.42699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>77620.337766</v>
+        <v>77620.337765999997</v>
       </c>
       <c r="L24" s="1">
-        <v>21.561205</v>
+        <v>21.561205000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>945.062000</v>
+        <v>945.06200000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.034000</v>
+        <v>-121.03400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>77630.841513</v>
+        <v>77630.841513000007</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.564123</v>
+        <v>21.564122999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>952.284000</v>
+        <v>952.28399999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.902000</v>
+        <v>-104.902</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>77641.009003</v>
+        <v>77641.009002999999</v>
       </c>
       <c r="V24" s="1">
-        <v>21.566947</v>
+        <v>21.566946999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>959.372000</v>
+        <v>959.37199999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.828200</v>
+        <v>-89.828199999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>77651.532125</v>
+        <v>77651.532124999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.569870</v>
+        <v>21.569870000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.104000</v>
+        <v>967.10400000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.933000</v>
+        <v>-77.933000000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>77661.992463</v>
+        <v>77661.992463000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.572776</v>
+        <v>21.572776000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>972.060000</v>
+        <v>972.06</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.506800</v>
+        <v>-75.506799999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>77673.232128</v>
+        <v>77673.232128000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.575898</v>
+        <v>21.575897999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.381000</v>
+        <v>979.38099999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.841700</v>
+        <v>-79.841700000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>77684.224930</v>
+        <v>77684.224929999997</v>
       </c>
       <c r="AP24" s="1">
         <v>21.578951</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.587000</v>
+        <v>987.58699999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.144700</v>
+        <v>-91.1447</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>77695.065988</v>
+        <v>77695.065988000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>21.581963</v>
+        <v>21.581962999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.503000</v>
+        <v>997.50300000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>77705.731990</v>
+        <v>77705.73199</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.584926</v>
+        <v>21.584925999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.924000</v>
+        <v>-123.92400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>77716.424215</v>
+        <v>77716.424215000006</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.587896</v>
+        <v>21.587896000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.805000</v>
+        <v>-194.80500000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>77727.017771</v>
+        <v>77727.017770999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>21.590838</v>
+        <v>21.590838000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.283000</v>
+        <v>-309.28300000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>77738.106382</v>
+        <v>77738.106381999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.593918</v>
+        <v>21.593917999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-488.606000</v>
+        <v>-488.60599999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>77748.737085</v>
+        <v>77748.737085000001</v>
       </c>
       <c r="BT24" s="1">
         <v>21.596871</v>
       </c>
       <c r="BU24" s="1">
-        <v>1341.090000</v>
+        <v>1341.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-683.900000</v>
+        <v>-683.9</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>77759.661509</v>
+        <v>77759.661508999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.599906</v>
+        <v>21.599906000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1475.830000</v>
+        <v>1475.83</v>
       </c>
       <c r="CA24" s="1">
-        <v>-891.837000</v>
+        <v>-891.83699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>77772.851581</v>
+        <v>77772.851580999995</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.603570</v>
+        <v>21.603570000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1825.910000</v>
+        <v>1825.91</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1382.690000</v>
+        <v>-1382.69</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>77599.694242</v>
+        <v>77599.694241999998</v>
       </c>
       <c r="B25" s="1">
-        <v>21.555471</v>
+        <v>21.555471000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.246000</v>
+        <v>902.24599999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.841000</v>
+        <v>-198.84100000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>77610.170741</v>
+        <v>77610.170740999994</v>
       </c>
       <c r="G25" s="1">
-        <v>21.558381</v>
+        <v>21.558381000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>920.275000</v>
+        <v>920.27499999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.352000</v>
+        <v>-169.352</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>77620.685430</v>
+        <v>77620.685429999998</v>
       </c>
       <c r="L25" s="1">
-        <v>21.561302</v>
+        <v>21.561302000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>945.012000</v>
+        <v>945.01199999999994</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.144000</v>
+        <v>-121.14400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>77631.382648</v>
+        <v>77631.382647999999</v>
       </c>
       <c r="Q25" s="1">
         <v>21.564273</v>
       </c>
       <c r="R25" s="1">
-        <v>952.318000</v>
+        <v>952.31799999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.902000</v>
+        <v>-104.902</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>77641.351243</v>
+        <v>77641.351242999997</v>
       </c>
       <c r="V25" s="1">
-        <v>21.567042</v>
+        <v>21.567042000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>959.415000</v>
+        <v>959.41499999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.854900</v>
+        <v>-89.854900000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>77652.192796</v>
+        <v>77652.192796000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.570054</v>
+        <v>21.570053999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>967.090000</v>
+        <v>967.09</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.968600</v>
+        <v>-77.968599999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>77662.655937</v>
+        <v>77662.655937000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.572960</v>
+        <v>21.572959999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>972.053000</v>
+        <v>972.053</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.649200</v>
+        <v>-75.649199999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>77673.610048</v>
+        <v>77673.610048000002</v>
       </c>
       <c r="AK25" s="1">
         <v>21.576003</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.376000</v>
+        <v>979.37599999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.825400</v>
+        <v>-79.825400000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>77684.584033</v>
+        <v>77684.584033000006</v>
       </c>
       <c r="AP25" s="1">
         <v>21.579051</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.601000</v>
+        <v>987.601</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.158900</v>
+        <v>-91.158900000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>77695.431044</v>
+        <v>77695.431043999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>21.582064</v>
+        <v>21.582063999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.492000</v>
+        <v>997.49199999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.474000</v>
+        <v>-108.474</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>77706.122805</v>
+        <v>77706.122805000006</v>
       </c>
       <c r="AZ25" s="1">
         <v>21.585034</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.922000</v>
+        <v>-123.922</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>77716.857223</v>
+        <v>77716.857222999999</v>
       </c>
       <c r="BE25" s="1">
         <v>21.588016</v>
       </c>
       <c r="BF25" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.788000</v>
+        <v>-194.78800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>77727.442873</v>
+        <v>77727.442873000007</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.590956</v>
+        <v>21.590955999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1111.630000</v>
+        <v>1111.6300000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.290000</v>
+        <v>-309.29000000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>77738.493210</v>
+        <v>77738.493210000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.594026</v>
+        <v>21.594025999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-488.620000</v>
+        <v>-488.62</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>77749.169100</v>
+        <v>77749.169099999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.596991</v>
+        <v>21.596990999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1340.990000</v>
+        <v>1340.99</v>
       </c>
       <c r="BV25" s="1">
-        <v>-683.937000</v>
+        <v>-683.93700000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>77760.077118</v>
+        <v>77760.077118000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>21.600021</v>
+        <v>21.600021000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1475.850000</v>
+        <v>1475.85</v>
       </c>
       <c r="CA25" s="1">
-        <v>-891.755000</v>
+        <v>-891.755</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>77773.367422</v>
+        <v>77773.367421999996</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.603713</v>
+        <v>21.603712999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1825.320000</v>
+        <v>1825.32</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1381.960000</v>
+        <v>-1381.96</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>77600.042961</v>
+        <v>77600.042960999999</v>
       </c>
       <c r="B26" s="1">
         <v>21.555567</v>
       </c>
       <c r="C26" s="1">
-        <v>902.264000</v>
+        <v>902.26400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.857000</v>
+        <v>-198.857</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>77610.509054</v>
+        <v>77610.509053999995</v>
       </c>
       <c r="G26" s="1">
-        <v>21.558475</v>
+        <v>21.558475000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>920.736000</v>
+        <v>920.73599999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.227000</v>
+        <v>-169.227</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>77621.031142</v>
+        <v>77621.031142000007</v>
       </c>
       <c r="L26" s="1">
-        <v>21.561398</v>
+        <v>21.561398000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>944.926000</v>
+        <v>944.92600000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.279000</v>
+        <v>-121.279</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>77631.527977</v>
+        <v>77631.527977000005</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.564313</v>
+        <v>21.564312999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>952.294000</v>
+        <v>952.29399999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.948000</v>
+        <v>-104.94799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>77642.013897</v>
+        <v>77642.013896999997</v>
       </c>
       <c r="V26" s="1">
-        <v>21.567226</v>
+        <v>21.567226000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>959.506000</v>
+        <v>959.50599999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.736800</v>
+        <v>-89.736800000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>77652.573229</v>
+        <v>77652.573229000001</v>
       </c>
       <c r="AA26" s="1">
         <v>21.570159</v>
       </c>
       <c r="AB26" s="1">
-        <v>967.063000</v>
+        <v>967.06299999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.993800</v>
+        <v>-77.993799999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>77663.022942</v>
+        <v>77663.022941999996</v>
       </c>
       <c r="AF26" s="1">
         <v>21.573062</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.901000</v>
+        <v>971.90099999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.516200</v>
+        <v>-75.516199999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>77673.960224</v>
+        <v>77673.960223999995</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.576100</v>
+        <v>21.5761</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.365000</v>
+        <v>979.36500000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.820700</v>
+        <v>-79.820700000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>77684.945617</v>
+        <v>77684.945617000005</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.579152</v>
+        <v>21.579152000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.574000</v>
+        <v>987.57399999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.134700</v>
+        <v>-91.134699999999995</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>77695.799571</v>
+        <v>77695.799570999996</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.582167</v>
+        <v>21.582166999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.517000</v>
+        <v>997.51700000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.475000</v>
+        <v>-108.47499999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>77706.546388</v>
+        <v>77706.546388000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.585152</v>
+        <v>21.585152000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.921000</v>
+        <v>-123.92100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>77717.145895</v>
+        <v>77717.145894999994</v>
       </c>
       <c r="BE26" s="1">
         <v>21.588096</v>
       </c>
       <c r="BF26" s="1">
-        <v>1044.700000</v>
+        <v>1044.7</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.792000</v>
+        <v>-194.792</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>77727.789544</v>
+        <v>77727.789543999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.591053</v>
+        <v>21.591052999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1111.650000</v>
+        <v>1111.6500000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.280000</v>
+        <v>-309.27999999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>77738.910880</v>
+        <v>77738.910879999996</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.594142</v>
+        <v>21.594142000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-488.616000</v>
+        <v>-488.61599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>77749.575325</v>
+        <v>77749.575324999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.597104</v>
+        <v>21.597104000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1340.940000</v>
+        <v>1340.94</v>
       </c>
       <c r="BV26" s="1">
-        <v>-683.976000</v>
+        <v>-683.976</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>77760.524013</v>
+        <v>77760.524013000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>21.600146</v>
+        <v>21.600145999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1475.790000</v>
+        <v>1475.79</v>
       </c>
       <c r="CA26" s="1">
-        <v>-891.880000</v>
+        <v>-891.88</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>77773.890203</v>
+        <v>77773.890203000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.603858</v>
+        <v>21.603857999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1824.460000</v>
+        <v>1824.46</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1382.930000</v>
+        <v>-1382.93</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>